--- a/Sensors.xlsx
+++ b/Sensors.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Konstruktion\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Technik\Technik 2020\04 - Electronics\Doku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{63CC7D25-40C4-4833-A977-BABB9A6067DC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8920C224-8F21-43A8-9928-FA3CBD826BCB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ECU" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="44">
   <si>
     <t>Name</t>
   </si>
@@ -82,9 +82,6 @@
     <t>Triumph OEM Sensor</t>
   </si>
   <si>
-    <t>UAC</t>
-  </si>
-  <si>
     <t>CMC</t>
   </si>
   <si>
@@ -164,6 +161,9 @@
   </si>
   <si>
     <t>TPS_2</t>
+  </si>
+  <si>
+    <t>UAC 4x</t>
   </si>
 </sst>
 </file>
@@ -573,7 +573,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -694,7 +694,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -782,8 +782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57E4867B-E081-4D9B-BE08-D44CF9016733}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -794,7 +794,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -807,43 +807,39 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
@@ -899,7 +895,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="B7" sqref="B7:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -910,7 +906,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -926,7 +922,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -934,32 +930,28 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
@@ -1008,10 +1000,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{279D7123-5373-4799-A04D-BA3FD4C5245F}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1022,7 +1014,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1038,7 +1030,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1046,40 +1038,36 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
@@ -1110,12 +1098,8 @@
       <c r="C15" s="1"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B16" s="5"/>
-      <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="6"/>
-      <c r="C17" s="2"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -1138,7 +1122,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1151,18 +1135,18 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1230,7 +1214,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA4845D6-5A72-4E06-A198-FB935BE27590}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -1242,7 +1226,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1255,34 +1239,34 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
